--- a/storage/excel/summary9_by_tool_electric.xlsx
+++ b/storage/excel/summary9_by_tool_electric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,14 @@
     <sheet name="18" sheetId="18" r:id="rId18"/>
     <sheet name="19" sheetId="19" r:id="rId19"/>
     <sheet name="20" sheetId="20" r:id="rId20"/>
+    <sheet name="21" sheetId="21" r:id="rId21"/>
+    <sheet name="22" sheetId="22" r:id="rId22"/>
+    <sheet name="23" sheetId="23" r:id="rId23"/>
+    <sheet name="24" sheetId="24" r:id="rId24"/>
+    <sheet name="25" sheetId="25" r:id="rId25"/>
+    <sheet name="26" sheetId="26" r:id="rId26"/>
+    <sheet name="27" sheetId="27" r:id="rId27"/>
+    <sheet name="28" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="197">
   <si>
     <t>อุปกรณ์ในหมวดประกอบอาหาร</t>
   </si>
@@ -442,6 +450,195 @@
   <si>
     <t xml:space="preserve">  มากกว่า 32,000 mAh</t>
   </si>
+  <si>
+    <t>อุปกรณ์ในหมวดความสะดวกสบาย</t>
+  </si>
+  <si>
+    <t>พัดลม</t>
+  </si>
+  <si>
+    <t>ตั้งโต๊ะ</t>
+  </si>
+  <si>
+    <t>14 นิ้ว</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>16 นิ้ว</t>
+  </si>
+  <si>
+    <t>18 นิ้ว</t>
+  </si>
+  <si>
+    <t>ตั้งพื้น</t>
+  </si>
+  <si>
+    <t>ติดผนัง</t>
+  </si>
+  <si>
+    <t>ติดเพดาน</t>
+  </si>
+  <si>
+    <t>56 นิ้ว</t>
+  </si>
+  <si>
+    <t>อุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>25 นิ้ว</t>
+  </si>
+  <si>
+    <t>ทาวเวอร์</t>
+  </si>
+  <si>
+    <t>ไอเย็น</t>
+  </si>
+  <si>
+    <t>พัดลมดูดอากาศ</t>
+  </si>
+  <si>
+    <t>8 นิ้ว</t>
+  </si>
+  <si>
+    <t>10 นิ้ว</t>
+  </si>
+  <si>
+    <t>12 นิ้ว</t>
+  </si>
+  <si>
+    <t>เครื่องฟอกอากาศ</t>
+  </si>
+  <si>
+    <t>เครื่องทำน้ำอุ่นไฟฟ้า</t>
+  </si>
+  <si>
+    <t>เครื่องดูดฝุ่น</t>
+  </si>
+  <si>
+    <t>แบบทั่วไป</t>
+  </si>
+  <si>
+    <t>หุ่นยนต์</t>
+  </si>
+  <si>
+    <t>แบบต้นฉบับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบทั่วไป</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบหุ่นยนต์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบต้นฉบับ</t>
+  </si>
+  <si>
+    <t>เตารีดไฟฟ้า</t>
+  </si>
+  <si>
+    <t>แบบแห้ง</t>
+  </si>
+  <si>
+    <t>แบบไอน้ำ</t>
+  </si>
+  <si>
+    <t>แบบหม้อต้มไอน้ำ</t>
+  </si>
+  <si>
+    <t>แบบกดทับ</t>
+  </si>
+  <si>
+    <t>เครื่องรีดผ้าไอน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบแห้ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบไอน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบหม้อต้มไอน้ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  แบบกดทับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  เครื่องรีดผ้าไอน้ำ</t>
+  </si>
+  <si>
+    <t>ตู้เย็น</t>
+  </si>
+  <si>
+    <t>1 ประตู</t>
+  </si>
+  <si>
+    <t>น้อยกว่า 100 ลิตร</t>
+  </si>
+  <si>
+    <t>มากกว่าหรือเท่ากับ 100 ลิตร</t>
+  </si>
+  <si>
+    <t>2 ประตู</t>
+  </si>
+  <si>
+    <t>น้อยกว่า 450 ลิตร</t>
+  </si>
+  <si>
+    <t>มากกว่าหรือเท่ากับ 450 ลิตร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 ประตู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ประตู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      มีเบอร์ 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ไม่มีเบอร์ 5</t>
+  </si>
+  <si>
+    <t>เครื่องปรับอากาศ</t>
+  </si>
+  <si>
+    <t>9000 บีทียู</t>
+  </si>
+  <si>
+    <t>12000 บีทียู</t>
+  </si>
+  <si>
+    <t>18000 บีทียู</t>
+  </si>
+  <si>
+    <t>21000 บีทียู</t>
+  </si>
+  <si>
+    <t>24000 บีทียู</t>
+  </si>
+  <si>
+    <t>26000 บีทียู</t>
+  </si>
+  <si>
+    <t>ตั้ง/แขวน</t>
+  </si>
+  <si>
+    <t>36000 บีทียู</t>
+  </si>
+  <si>
+    <t>40000 บีทียู</t>
+  </si>
+  <si>
+    <t>48000 บีทียู</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ติดผนัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ตั้ง/แขวน</t>
+  </si>
 </sst>
 </file>
 
@@ -522,12 +719,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -747,7 +950,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1230,6 +1433,85 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14032,7 +14314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
@@ -14967,6 +15249,9588 @@
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR48"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="185" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="185" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="185" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="7.25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="23" width="7.25" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="5.875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="5.875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="5.875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.875" style="7" customWidth="1"/>
+    <col min="33" max="33" width="5.875" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="36" width="7.25" style="7" customWidth="1"/>
+    <col min="37" max="37" width="10.125" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="7.25" style="7" customWidth="1"/>
+    <col min="41" max="41" width="7.125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="4.875" style="7" customWidth="1"/>
+    <col min="43" max="43" width="7.125" style="7" customWidth="1"/>
+    <col min="44" max="44" width="4.875" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1">
+      <c r="E1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="I1" s="183"/>
+    </row>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="23" customFormat="1">
+      <c r="A5" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="63"/>
+      <c r="L5" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="X5" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y5" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AJ5" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK5" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="140"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="63"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="140"/>
+      <c r="B8" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="63"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AJ8" s="140"/>
+      <c r="AK8" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="63"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="140"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="63"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AJ10" s="140"/>
+      <c r="AK10" s="136"/>
+      <c r="AL10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="140"/>
+      <c r="B11" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="63"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y11" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AJ11" s="140"/>
+      <c r="AK11" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="63"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AJ12" s="140"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="140"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="63"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="140"/>
+      <c r="B14" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="63"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="140"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="63"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="140"/>
+      <c r="B16" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="63"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="63"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y17" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AJ17" s="140"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="63"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AJ18" s="140"/>
+      <c r="AK18" s="136"/>
+      <c r="AL18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="66"/>
+      <c r="B19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="63"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AJ19" s="140"/>
+      <c r="AK19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="66"/>
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="63"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AJ20" s="136"/>
+      <c r="AK20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="63"/>
+      <c r="L21" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AJ21" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK21" s="178"/>
+      <c r="AL21" s="178"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="178" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="63"/>
+      <c r="L22" s="178" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AJ22" s="178" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK22" s="178"/>
+      <c r="AL22" s="178"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="63"/>
+      <c r="L23" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y23" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AJ23" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK23" s="178"/>
+      <c r="AL23" s="178"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="178" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="63"/>
+      <c r="L24" s="178" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AJ24" s="178" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK24" s="178"/>
+      <c r="AL24" s="178"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="63"/>
+      <c r="L25" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AJ25" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK25" s="178"/>
+      <c r="AL25" s="178"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="63"/>
+      <c r="L26" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AJ26" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK26" s="178"/>
+      <c r="AL26" s="178"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="178" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="5">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="64">
+        <f t="shared" ref="E27:I28" si="0">E19</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="178" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="12">
+        <f>O19</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" ref="P27:T27" si="1">P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="140"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AJ27" s="178" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK27" s="178"/>
+      <c r="AL27" s="178"/>
+      <c r="AM27" s="12">
+        <f>AM19</f>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="13">
+        <f t="shared" ref="AN27:AR27" si="2">AN19</f>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="5">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="12">
+        <f>O20</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" ref="P28:T28" si="3">P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="140"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AJ28" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK28" s="178"/>
+      <c r="AL28" s="178"/>
+      <c r="AM28" s="12">
+        <f>AM20</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="13">
+        <f t="shared" ref="AN28:AR28" si="4">AN20</f>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="W29" s="140"/>
+      <c r="X29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="W30" s="136"/>
+      <c r="X30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="W31" s="179" t="s">
+        <v>135</v>
+      </c>
+      <c r="X31" s="180"/>
+      <c r="Y31" s="180"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB31" s="182">
+        <f>SUM(AB5:AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="182">
+        <f>SUM(AC5:AC30)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="182">
+        <f t="shared" ref="AD31:AG31" si="5">SUM(AD5:AD30)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="182">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="W32" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="X32" s="180"/>
+      <c r="Y32" s="180"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB32" s="182">
+        <f>SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB21,AB23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="182">
+        <f>SUM(AC5,AC7,AC9,AC11,AC13,AC15,AC17,AC19,AC21,AC23)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="182">
+        <f t="shared" ref="AD32:AG33" si="6">SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19,AD21,AD23)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="23:33">
+      <c r="W33" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB33" s="182">
+        <f>SUM(AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20,AB22,AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="182">
+        <f>SUM(AC6,AC8,AC10,AC12,AC14,AC16,AC18,AC20,AC22,AC24)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="23:33">
+      <c r="W34" s="179" t="s">
+        <v>136</v>
+      </c>
+      <c r="X34" s="180"/>
+      <c r="Y34" s="180"/>
+      <c r="Z34" s="181"/>
+      <c r="AA34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB34" s="182">
+        <f>SUM(AB5:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="182">
+        <f t="shared" ref="AC34:AG34" si="7">SUM(AC5:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="23:33">
+      <c r="W35" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="180"/>
+      <c r="Y35" s="180"/>
+      <c r="Z35" s="181"/>
+      <c r="AA35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB35" s="182">
+        <f>SUM(AB5,AB7,AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="182">
+        <f t="shared" ref="AC35:AG36" si="8">SUM(AC5,AC7,AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="23:33">
+      <c r="W36" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="X36" s="180"/>
+      <c r="Y36" s="180"/>
+      <c r="Z36" s="181"/>
+      <c r="AA36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB36" s="182">
+        <f>SUM(AB6,AB8,AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="23:33">
+      <c r="W37" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="X37" s="180"/>
+      <c r="Y37" s="180"/>
+      <c r="Z37" s="181"/>
+      <c r="AA37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB37" s="182">
+        <f>SUM(AB11:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="182">
+        <f t="shared" ref="AC37:AG37" si="9">SUM(AC11:AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="23:33">
+      <c r="W38" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="X38" s="180"/>
+      <c r="Y38" s="180"/>
+      <c r="Z38" s="181"/>
+      <c r="AA38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB38" s="182">
+        <f>SUM(AB11,AB13,AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="182">
+        <f t="shared" ref="AC38:AG39" si="10">SUM(AC11,AC13,AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="23:33">
+      <c r="W39" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB39" s="182">
+        <f>SUM(AB12,AB14,AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="23:33">
+      <c r="W40" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="X40" s="180"/>
+      <c r="Y40" s="180"/>
+      <c r="Z40" s="181"/>
+      <c r="AA40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB40" s="182">
+        <f>SUM(AB17:AB22)</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="182">
+        <f t="shared" ref="AC40:AG40" si="11">SUM(AC17:AC22)</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="23:33">
+      <c r="W41" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="X41" s="180"/>
+      <c r="Y41" s="180"/>
+      <c r="Z41" s="181"/>
+      <c r="AA41" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB41" s="182">
+        <f>SUM(AB17,AB19,AB21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="182">
+        <f t="shared" ref="AC41:AG41" si="12">SUM(AC17,AC19,AC21)</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="23:33">
+      <c r="W42" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="X42" s="180"/>
+      <c r="Y42" s="180"/>
+      <c r="Z42" s="181"/>
+      <c r="AA42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB42" s="182">
+        <f>SUM(AB22,AB20,AB18)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="182">
+        <f t="shared" ref="AC42:AG42" si="13">SUM(AC22,AC20,AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="23:33">
+      <c r="W43" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="X43" s="180"/>
+      <c r="Y43" s="180"/>
+      <c r="Z43" s="181"/>
+      <c r="AA43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB43" s="182">
+        <f>SUM(AB23:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="182">
+        <f t="shared" ref="AC43:AG43" si="14">SUM(AC23:AC25)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="23:33">
+      <c r="W44" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="180"/>
+      <c r="Y44" s="180"/>
+      <c r="Z44" s="181"/>
+      <c r="AA44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB44" s="182">
+        <f>SUM(AB23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="182">
+        <f t="shared" ref="AC44:AG45" si="15">SUM(AC23)</f>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="23:33">
+      <c r="W45" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="X45" s="180"/>
+      <c r="Y45" s="180"/>
+      <c r="Z45" s="181"/>
+      <c r="AA45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB45" s="182">
+        <f>SUM(AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="182">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="23:33">
+      <c r="W46" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="X46" s="180"/>
+      <c r="Y46" s="180"/>
+      <c r="Z46" s="181"/>
+      <c r="AA46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB46" s="182">
+        <f>SUM(AB26:AB28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="182">
+        <f t="shared" ref="AC46:AG46" si="16">SUM(AC26:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="182">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="182">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="182">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="182">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="23:33">
+      <c r="W47" s="179" t="s">
+        <v>147</v>
+      </c>
+      <c r="X47" s="180"/>
+      <c r="Y47" s="180"/>
+      <c r="Z47" s="181"/>
+      <c r="AA47" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB47" s="182">
+        <f>SUM(AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="182">
+        <f t="shared" ref="AC47:AG48" si="17">SUM(AC29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="23:33">
+      <c r="W48" s="179" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="180"/>
+      <c r="Y48" s="180"/>
+      <c r="Z48" s="181"/>
+      <c r="AA48" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB48" s="182">
+        <f>SUM(AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="182">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="97">
+    <mergeCell ref="W46:Z46"/>
+    <mergeCell ref="W47:Z47"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="W45:Z45"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="AK16:AK18"/>
+    <mergeCell ref="X17:X22"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="X11:X16"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="X5:X10"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AJ5:AJ20"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L18"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="W5:W30"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="12" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="23" width="12.375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="7.25" style="7" customWidth="1"/>
+    <col min="25" max="25" width="5.875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="5" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="5" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.875" style="7" customWidth="1"/>
+    <col min="33" max="33" width="5" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="36" width="12.375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.25" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.25" style="7" customWidth="1"/>
+    <col min="40" max="40" width="4.875" style="7" customWidth="1"/>
+    <col min="41" max="43" width="7.25" style="7" customWidth="1"/>
+    <col min="44" max="44" width="4.875" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="23" customFormat="1">
+      <c r="A5" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="X5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y5" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AJ5" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK5" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="L8" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="20"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AJ8" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK8" s="141"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="W11" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="17">
+        <f>SUM(AB5:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <f t="shared" ref="AC11:AG11" si="0">SUM(AC5:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="W12" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="17">
+        <f>SUM(AB5,AB7,AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <f t="shared" ref="AC12:AG13" si="1">SUM(AC5,AC7,AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="W13" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="189">
+        <f>SUM(AB6,AB8,AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="X5:X10"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="W5:W10"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR6"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="13" width="13.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="7" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="7" customWidth="1"/>
+    <col min="19" max="19" width="6.875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="24" width="13.375" style="7" customWidth="1"/>
+    <col min="25" max="27" width="5.625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.75" style="7" customWidth="1"/>
+    <col min="29" max="29" width="4.875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="7" customWidth="1"/>
+    <col min="31" max="31" width="4.875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.75" style="7" customWidth="1"/>
+    <col min="33" max="33" width="4.875" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="37" width="13.375" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.625" style="7" customWidth="1"/>
+    <col min="39" max="39" width="6.875" style="7" customWidth="1"/>
+    <col min="40" max="40" width="4.75" style="7" customWidth="1"/>
+    <col min="41" max="41" width="6.875" style="7" customWidth="1"/>
+    <col min="42" max="42" width="4.75" style="7" customWidth="1"/>
+    <col min="43" max="43" width="6.875" style="7" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="W5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AJ5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="61">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:I6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="17">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6:T6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="17">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="17">
+        <f t="shared" ref="AC6:AG6" si="2">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="190" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK6" s="190"/>
+      <c r="AL6" s="190"/>
+      <c r="AM6" s="17">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="17">
+        <f t="shared" ref="AN6:AR6" si="3">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR9"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="15.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="13" width="15.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="4.875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="24" width="15.375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="5.75" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="5" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="5" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.875" style="7" customWidth="1"/>
+    <col min="33" max="33" width="5.875" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="37" width="15.375" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.75" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="4.875" style="7" customWidth="1"/>
+    <col min="41" max="41" width="7.125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="4.875" style="7" customWidth="1"/>
+    <col min="43" max="43" width="7.125" style="7" customWidth="1"/>
+    <col min="44" max="44" width="4.875" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="23" customFormat="1">
+      <c r="A5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="63"/>
+      <c r="L5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y5" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AJ5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="61">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="62">
+        <f t="shared" ref="E6:I6" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="17">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6:T6" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AJ6" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="131"/>
+      <c r="AM6" s="17">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="17">
+        <f t="shared" ref="AN6:AR6" si="2">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="W7" s="191" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="62">
+        <f>SUM(AB5:AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="62">
+        <f t="shared" ref="AC7:AG7" si="3">SUM(AC5:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="W8" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="62">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="62">
+        <f t="shared" ref="AC8:AG9" si="4">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="W9" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="62">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR11"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="185" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="185" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="185" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="7"/>
+    <col min="12" max="12" width="9.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="7" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="7" customWidth="1"/>
+    <col min="19" max="19" width="6.875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9.125" style="7"/>
+    <col min="23" max="23" width="9.625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10" style="7" customWidth="1"/>
+    <col min="25" max="27" width="5.625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.75" style="7" customWidth="1"/>
+    <col min="29" max="29" width="4.875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="7" customWidth="1"/>
+    <col min="31" max="31" width="4.875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.75" style="7" customWidth="1"/>
+    <col min="33" max="33" width="4.875" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9.125" style="7"/>
+    <col min="36" max="36" width="9.625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="10" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.625" style="7" customWidth="1"/>
+    <col min="39" max="39" width="6.875" style="7" customWidth="1"/>
+    <col min="40" max="40" width="4.75" style="7" customWidth="1"/>
+    <col min="41" max="41" width="6.875" style="7" customWidth="1"/>
+    <col min="42" max="42" width="4.75" style="7" customWidth="1"/>
+    <col min="43" max="43" width="6.875" style="7" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9.125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1">
+      <c r="E1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="I1" s="183"/>
+    </row>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AJ5" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK5" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL5" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="172"/>
+      <c r="B6" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AJ6" s="172"/>
+      <c r="AK6" s="173" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL6" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="192"/>
+      <c r="B7" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AJ7" s="192"/>
+      <c r="AK7" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL7" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="L8" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="W8" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>SUM(AB5:AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <f t="shared" ref="AC8:AG8" si="0">SUM(AC5:AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK8" s="141"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="65">
+        <f t="shared" ref="E9:I9" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="19">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" ref="P9:T9" si="2">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="17">
+        <f>SUM(AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <f t="shared" ref="AC9:AG11" si="3">SUM(AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK9" s="141"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="19">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="20">
+        <f t="shared" ref="AN9:AR9" si="4">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:I10" si="5">D6</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="19">
+        <f t="shared" ref="O10:T10" si="6">O6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="17">
+        <f>SUM(AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK10" s="141"/>
+      <c r="AL10" s="141"/>
+      <c r="AM10" s="19">
+        <f t="shared" ref="AM10:AR10" si="7">AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:I11" si="8">D7</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="19">
+        <f t="shared" ref="O11:T11" si="9">O7</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="137" t="s">
+        <v>161</v>
+      </c>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="17">
+        <f>SUM(AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="141"/>
+      <c r="AM11" s="19">
+        <f t="shared" ref="AM11:AR11" si="10">AM7</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="185" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6" style="185" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6" style="185" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="9.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="7.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="7.25" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="23" width="9.625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="13.625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="5.75" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.75" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="5" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="5.875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="6.875" style="7" customWidth="1"/>
+    <col min="33" max="33" width="5.875" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="36" width="9.625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="13.625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="5.75" style="7" customWidth="1"/>
+    <col min="39" max="39" width="7.125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="7.25" style="7" customWidth="1"/>
+    <col min="41" max="41" width="7.125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="7.25" style="7" customWidth="1"/>
+    <col min="43" max="43" width="7.125" style="7" customWidth="1"/>
+    <col min="44" max="44" width="7.25" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1">
+      <c r="E1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="I1" s="183"/>
+    </row>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="23" customFormat="1">
+      <c r="A5" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="135" t="s">
+        <v>162</v>
+      </c>
+      <c r="X5" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AJ5" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK5" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="109"/>
+      <c r="B6" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="109"/>
+      <c r="B7" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y7" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="109"/>
+      <c r="B8" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AJ8" s="109"/>
+      <c r="AK8" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="108"/>
+      <c r="B9" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="17"/>
+      <c r="L10" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AJ10" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK10" s="141"/>
+      <c r="AL10" s="141"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="14">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="65">
+        <f t="shared" ref="E11:I11" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="20">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" ref="P11:T11" si="1">P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="136"/>
+      <c r="X11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AJ11" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="141"/>
+      <c r="AM11" s="20">
+        <f>AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="20">
+        <f t="shared" ref="AN11:AR11" si="2">AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:I12" si="3">D6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="20">
+        <f t="shared" ref="O12:T12" si="4">O6</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="62">
+        <f>SUM(AB5:AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="62">
+        <f t="shared" ref="AC12:AG12" si="5">SUM(AC5:AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK12" s="141"/>
+      <c r="AL12" s="141"/>
+      <c r="AM12" s="20">
+        <f t="shared" ref="AM12:AR12" si="6">AM6</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:I13" si="7">D7</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="20">
+        <f t="shared" ref="O13:T13" si="8">O7</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="62">
+        <f>SUM(AB5,AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="62">
+        <f t="shared" ref="AC13:AG14" si="9">SUM(AC5,AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="20">
+        <f t="shared" ref="AM13:AR13" si="10">AM7</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="14">
+        <f t="shared" ref="D14:I14" si="11">D8</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="20">
+        <f t="shared" ref="O14:T14" si="12">O8</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="62">
+        <f>SUM(AB6,AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="141"/>
+      <c r="AM14" s="20">
+        <f t="shared" ref="AM14:AR14" si="13">AM8</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:I15" si="14">D9</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="20">
+        <f t="shared" ref="O15:T15" si="15">O9</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="62">
+        <f>SUM(AB5:AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="62">
+        <f t="shared" ref="AC15:AG15" si="16">SUM(AC5:AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK15" s="141"/>
+      <c r="AL15" s="141"/>
+      <c r="AM15" s="20">
+        <f t="shared" ref="AM15:AR15" si="17">AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="W16" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="62">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="62">
+        <f t="shared" ref="AC16:AG17" si="18">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="23:33">
+      <c r="W17" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="62">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="23:33">
+      <c r="W18" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="62">
+        <f>SUM(AB7:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="62">
+        <f t="shared" ref="AC18:AG18" si="19">SUM(AC7:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="62">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="23:33">
+      <c r="W19" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="62">
+        <f>AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="62">
+        <f t="shared" ref="AC19:AG20" si="20">AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="23:33">
+      <c r="W20" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="62">
+        <f>AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="62">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="23:33">
+      <c r="W21" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="62">
+        <f>SUM(AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="62">
+        <f t="shared" ref="AC21:AG23" si="21">SUM(AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="23:33">
+      <c r="W22" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="62">
+        <f>SUM(AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="23:33">
+      <c r="W23" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="62">
+        <f>SUM(AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="W5:W11"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="159" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="159" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="159" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="159" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="159" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="159" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="159" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="159" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="159" customWidth="1"/>
+    <col min="10" max="11" width="9" style="159"/>
+    <col min="12" max="12" width="7.25" style="159" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="159" customWidth="1"/>
+    <col min="14" max="14" width="24.75" style="159" customWidth="1"/>
+    <col min="15" max="15" width="7.25" style="159" customWidth="1"/>
+    <col min="16" max="16" width="5" style="159" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="159" customWidth="1"/>
+    <col min="18" max="18" width="5" style="159" customWidth="1"/>
+    <col min="19" max="19" width="7.25" style="159" customWidth="1"/>
+    <col min="20" max="20" width="5" style="159" customWidth="1"/>
+    <col min="21" max="22" width="9" style="159"/>
+    <col min="23" max="23" width="7.25" style="159" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="159" customWidth="1"/>
+    <col min="25" max="25" width="24.75" style="159" customWidth="1"/>
+    <col min="26" max="26" width="6.875" style="159" customWidth="1"/>
+    <col min="27" max="27" width="5.875" style="159" customWidth="1"/>
+    <col min="28" max="28" width="7.25" style="159" customWidth="1"/>
+    <col min="29" max="29" width="6.125" style="159" customWidth="1"/>
+    <col min="30" max="30" width="7.25" style="159" customWidth="1"/>
+    <col min="31" max="31" width="6.125" style="159" customWidth="1"/>
+    <col min="32" max="32" width="8.375" style="159" customWidth="1"/>
+    <col min="33" max="33" width="7.25" style="159" customWidth="1"/>
+    <col min="34" max="35" width="9" style="159"/>
+    <col min="36" max="36" width="7.25" style="159" customWidth="1"/>
+    <col min="37" max="37" width="7.375" style="159" customWidth="1"/>
+    <col min="38" max="38" width="24.75" style="159" customWidth="1"/>
+    <col min="39" max="39" width="7.25" style="159" customWidth="1"/>
+    <col min="40" max="40" width="5" style="159" customWidth="1"/>
+    <col min="41" max="41" width="7.25" style="159" customWidth="1"/>
+    <col min="42" max="42" width="5" style="159" customWidth="1"/>
+    <col min="43" max="43" width="7.25" style="159" customWidth="1"/>
+    <col min="44" max="44" width="5" style="159" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="159"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="142" customFormat="1"/>
+    <row r="2" spans="1:44" s="145" customFormat="1">
+      <c r="A2" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="L2" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="W2" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AJ2" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
+      <c r="AR2" s="144"/>
+    </row>
+    <row r="3" spans="1:44" s="145" customFormat="1">
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="144"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="144"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="144"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="144"/>
+      <c r="AO3" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="144"/>
+      <c r="AQ3" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="144"/>
+    </row>
+    <row r="4" spans="1:44" s="145" customFormat="1">
+      <c r="A4" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="145" customFormat="1">
+      <c r="A5" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="196"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="158"/>
+      <c r="L5" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="W5" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="X5" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y5" s="195" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z5" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AJ5" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK5" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL5" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="161"/>
+      <c r="AP5" s="161"/>
+      <c r="AQ5" s="161"/>
+      <c r="AR5" s="161"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="198"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="158"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="W6" s="198"/>
+      <c r="X6" s="198"/>
+      <c r="Y6" s="199"/>
+      <c r="Z6" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AJ6" s="198"/>
+      <c r="AK6" s="199"/>
+      <c r="AL6" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM6" s="161"/>
+      <c r="AN6" s="161"/>
+      <c r="AO6" s="161"/>
+      <c r="AP6" s="161"/>
+      <c r="AQ6" s="161"/>
+      <c r="AR6" s="161"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="198"/>
+      <c r="B7" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="196"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="158"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z7" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AJ7" s="198"/>
+      <c r="AK7" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL7" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="158"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AJ8" s="199"/>
+      <c r="AK8" s="199"/>
+      <c r="AL8" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM8" s="161"/>
+      <c r="AN8" s="161"/>
+      <c r="AO8" s="161"/>
+      <c r="AP8" s="161"/>
+      <c r="AQ8" s="161"/>
+      <c r="AR8" s="161"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="165"/>
+      <c r="L9" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y9" s="195" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z9" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="197"/>
+      <c r="AJ9" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="163"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="167"/>
+      <c r="AQ9" s="167"/>
+      <c r="AR9" s="167"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="165"/>
+      <c r="L10" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="199"/>
+      <c r="Z10" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AJ10" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK10" s="163"/>
+      <c r="AL10" s="163"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="167"/>
+      <c r="AP10" s="167"/>
+      <c r="AQ10" s="167"/>
+      <c r="AR10" s="167"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="169"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="165"/>
+      <c r="L11" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="195" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AJ11" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="167"/>
+      <c r="AP11" s="167"/>
+      <c r="AQ11" s="167"/>
+      <c r="AR11" s="167"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="W12" s="199"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="W13" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="204">
+        <f>SUM(AB5:AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="204">
+        <f t="shared" ref="AC13:AG13" si="0">SUM(AC5:AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="W14" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="204">
+        <f>SUM(AB5,AB7,AB9,AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="204">
+        <f t="shared" ref="AC14:AG15" si="1">SUM(AC5,AC7,AC9,AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="W15" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="202"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="204">
+        <f>SUM(AB6,AB8,AB10,AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="204">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="W16" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" s="169"/>
+      <c r="Y16" s="169"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="204">
+        <f>SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="204">
+        <f t="shared" ref="AC16:AG16" si="2">SUM(AC5:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="204">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="204">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="204">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="204">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="23:33">
+      <c r="W17" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="202"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="204">
+        <f>SUM(AB5,AB7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="204">
+        <f t="shared" ref="AC17:AG18" si="3">SUM(AC5,AC7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="23:33">
+      <c r="W18" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" s="202"/>
+      <c r="Y18" s="202"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="204">
+        <f>SUM(AB6,AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="23:33">
+      <c r="W19" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" s="169"/>
+      <c r="Y19" s="169"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="204">
+        <f>SUM(AB9:AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="204">
+        <f t="shared" ref="AC19:AG19" si="4">SUM(AC9:AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="23:33">
+      <c r="W20" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="202"/>
+      <c r="Z20" s="203"/>
+      <c r="AA20" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="204">
+        <f>SUM(AB9,AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="204">
+        <f t="shared" ref="AC20:AG20" si="5">SUM(AC9,AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="23:33">
+      <c r="W21" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="202"/>
+      <c r="Z21" s="203"/>
+      <c r="AA21" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="204">
+        <f>SUM(AB12,AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="204">
+        <f t="shared" ref="AC21:AG21" si="6">SUM(AC12,AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:X12"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W5:W12"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="W2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="5.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="13.25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="7" customWidth="1"/>
+    <col min="15" max="20" width="6.875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7"/>
+    <col min="23" max="23" width="13.25" style="7" customWidth="1"/>
+    <col min="24" max="24" width="7.625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="6.125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="5.25" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="5.625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="5.625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="7.625" style="7" customWidth="1"/>
+    <col min="33" max="33" width="5.625" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9" style="7"/>
+    <col min="36" max="36" width="13.25" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="9.875" style="7" customWidth="1"/>
+    <col min="39" max="44" width="6.875" style="7" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="23" customFormat="1">
+      <c r="A2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="L2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="W2" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AJ2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+    </row>
+    <row r="3" spans="1:44" s="23" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="86"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="86"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="86"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="86"/>
+    </row>
+    <row r="4" spans="1:44" s="23" customFormat="1">
+      <c r="A4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="23" customFormat="1">
+      <c r="A5" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="L5" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="W5" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="X5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y5" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="205"/>
+      <c r="AC5" s="205"/>
+      <c r="AD5" s="205"/>
+      <c r="AE5" s="205"/>
+      <c r="AF5" s="205"/>
+      <c r="AG5" s="205"/>
+      <c r="AJ5" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK5" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL5" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="205"/>
+      <c r="AD6" s="205"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="205"/>
+      <c r="AG6" s="205"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="205"/>
+      <c r="AF7" s="205"/>
+      <c r="AG7" s="205"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="205"/>
+      <c r="AC8" s="205"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="205"/>
+      <c r="AG8" s="205"/>
+      <c r="AJ8" s="109"/>
+      <c r="AK8" s="109"/>
+      <c r="AL8" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="205"/>
+      <c r="AG9" s="205"/>
+      <c r="AJ9" s="109"/>
+      <c r="AK9" s="109"/>
+      <c r="AL9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="109"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="205"/>
+      <c r="AD10" s="205"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="109"/>
+      <c r="B11" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="205"/>
+      <c r="AD11" s="205"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="205"/>
+      <c r="AG11" s="205"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL11" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="205"/>
+      <c r="AD12" s="205"/>
+      <c r="AE12" s="205"/>
+      <c r="AF12" s="205"/>
+      <c r="AG12" s="205"/>
+      <c r="AJ12" s="109"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="205"/>
+      <c r="AC13" s="205"/>
+      <c r="AD13" s="205"/>
+      <c r="AE13" s="205"/>
+      <c r="AF13" s="205"/>
+      <c r="AG13" s="205"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="205"/>
+      <c r="AC14" s="205"/>
+      <c r="AD14" s="205"/>
+      <c r="AE14" s="205"/>
+      <c r="AF14" s="205"/>
+      <c r="AG14" s="205"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="205"/>
+      <c r="AC15" s="205"/>
+      <c r="AD15" s="205"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="205"/>
+      <c r="AG15" s="205"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="8"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="205"/>
+      <c r="AC16" s="205"/>
+      <c r="AD16" s="205"/>
+      <c r="AE16" s="205"/>
+      <c r="AF16" s="205"/>
+      <c r="AG16" s="205"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="205"/>
+      <c r="AC17" s="205"/>
+      <c r="AD17" s="205"/>
+      <c r="AE17" s="205"/>
+      <c r="AF17" s="205"/>
+      <c r="AG17" s="205"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="17"/>
+      <c r="L18" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="205"/>
+      <c r="AC18" s="205"/>
+      <c r="AD18" s="205"/>
+      <c r="AE18" s="205"/>
+      <c r="AF18" s="205"/>
+      <c r="AG18" s="205"/>
+      <c r="AJ18" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK18" s="141"/>
+      <c r="AL18" s="141"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="L19" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="205"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="205"/>
+      <c r="AG19" s="205"/>
+      <c r="AJ19" s="141" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK19" s="141"/>
+      <c r="AL19" s="141"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="17"/>
+      <c r="L20" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="205"/>
+      <c r="AD20" s="205"/>
+      <c r="AE20" s="205"/>
+      <c r="AF20" s="205"/>
+      <c r="AG20" s="205"/>
+      <c r="AJ20" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK20" s="141"/>
+      <c r="AL20" s="141"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="W21" s="109"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="205"/>
+      <c r="AC21" s="205"/>
+      <c r="AD21" s="205"/>
+      <c r="AE21" s="205"/>
+      <c r="AF21" s="205"/>
+      <c r="AG21" s="205"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="P22" s="206"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="205"/>
+      <c r="AC22" s="205"/>
+      <c r="AD22" s="205"/>
+      <c r="AE22" s="205"/>
+      <c r="AF22" s="205"/>
+      <c r="AG22" s="205"/>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="W23" s="109"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="205"/>
+      <c r="AC23" s="205"/>
+      <c r="AD23" s="205"/>
+      <c r="AE23" s="205"/>
+      <c r="AF23" s="205"/>
+      <c r="AG23" s="205"/>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="W24" s="109"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="205"/>
+      <c r="AC24" s="205"/>
+      <c r="AD24" s="205"/>
+      <c r="AE24" s="205"/>
+      <c r="AF24" s="205"/>
+      <c r="AG24" s="205"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="W25" s="109"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="205"/>
+      <c r="AC25" s="205"/>
+      <c r="AD25" s="205"/>
+      <c r="AE25" s="205"/>
+      <c r="AF25" s="205"/>
+      <c r="AG25" s="205"/>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="W26" s="109"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="205"/>
+      <c r="AD26" s="205"/>
+      <c r="AE26" s="205"/>
+      <c r="AF26" s="205"/>
+      <c r="AG26" s="205"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="W27" s="109"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="205"/>
+      <c r="AC27" s="205"/>
+      <c r="AD27" s="205"/>
+      <c r="AE27" s="205"/>
+      <c r="AF27" s="205"/>
+      <c r="AG27" s="205"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="W28" s="109"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="205"/>
+      <c r="AC28" s="205"/>
+      <c r="AD28" s="205"/>
+      <c r="AE28" s="205"/>
+      <c r="AF28" s="205"/>
+      <c r="AG28" s="205"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="W29" s="109"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="205"/>
+      <c r="AC29" s="205"/>
+      <c r="AD29" s="205"/>
+      <c r="AE29" s="205"/>
+      <c r="AF29" s="205"/>
+      <c r="AG29" s="205"/>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="W30" s="108"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="205"/>
+      <c r="AC30" s="205"/>
+      <c r="AD30" s="205"/>
+      <c r="AE30" s="205"/>
+      <c r="AF30" s="205"/>
+      <c r="AG30" s="205"/>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="W31" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="184">
+        <f>SUM(AB5:AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="184">
+        <f>SUM(AC5:AC30)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="184">
+        <f t="shared" ref="AD31:AF31" si="0">SUM(AD5:AD30)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="184">
+        <f>SUM(AG5:AG30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="W32" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="17">
+        <f>SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB21,AB23,AB25,AB27,AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" ref="AC32:AG33" si="1">SUM(AC5,AC7,AC9,AC11,AC13,AC15,AC17,AC19,AC21,AC23,AC25,AC27,AC29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="23:33">
+      <c r="W33" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB33" s="17">
+        <f>SUM(AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20,AB22,AB24,AB26,AB28,AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="23:33">
+      <c r="W34" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="X34" s="138"/>
+      <c r="Y34" s="138"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB34" s="17">
+        <f>SUM(AB5:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="17">
+        <f t="shared" ref="AC34:AG34" si="2">SUM(AC5:AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="23:33">
+      <c r="W35" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X35" s="138"/>
+      <c r="Y35" s="138"/>
+      <c r="Z35" s="139"/>
+      <c r="AA35" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB35" s="17">
+        <f>SUM(AB5,AB7,AB9,AB11,AB13,AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" ref="AC35:AG36" si="3">SUM(AC5,AC7,AC9,AC11,AC13,AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="23:33">
+      <c r="W36" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X36" s="138"/>
+      <c r="Y36" s="138"/>
+      <c r="Z36" s="139"/>
+      <c r="AA36" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="17">
+        <f>SUM(AB6,AB8,AB10,AB12,AB14,AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="23:33">
+      <c r="W37" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="X37" s="138"/>
+      <c r="Y37" s="138"/>
+      <c r="Z37" s="139"/>
+      <c r="AA37" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="17">
+        <f>SUM(AB17:AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="17">
+        <f t="shared" ref="AC37:AF37" si="4">SUM(AC17:AC30)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="17">
+        <f>SUM(AG17:AG30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="23:33">
+      <c r="W38" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38" s="138"/>
+      <c r="Y38" s="138"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB38" s="17">
+        <f>SUM(AB17,AB19,AB21,AB23,AB25,AB27,AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="17">
+        <f t="shared" ref="AC38:AG39" si="5">SUM(AC17,AC19,AC21,AC23,AC25,AC27,AC29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="17">
+        <f>SUM(AG17,AG19,AG21,AG23,AG25,AG27,AG29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="23:33">
+      <c r="W39" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="X39" s="138"/>
+      <c r="Y39" s="138"/>
+      <c r="Z39" s="139"/>
+      <c r="AA39" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB39" s="17">
+        <f>SUM(AB18,AB20,AB22,AB24,AB26,AB28,AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="17">
+        <f>SUM(AC18,AC20,AC22,AC24,AC26,AC28,AC30)</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="M11:M17"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="AK11:AK17"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X17:X30"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="X5:X16"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AJ5:AJ17"/>
+    <mergeCell ref="AK5:AK10"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="L5:L17"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="W5:W30"/>
     <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="AJ2:AL3"/>
     <mergeCell ref="AM2:AR2"/>
